--- a/Ferreteria/Content/Archivos/Factura.xlsx
+++ b/Ferreteria/Content/Archivos/Factura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmtav\OneDrive\Documents\DataBaseSQL\DistribucionesArlys\Impresora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2B3A9E-1FB1-4A95-8558-64F7D5D02AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DE2777-DA7D-448D-8119-E9E592D5185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{906002E2-91C9-4D76-B6B1-F843F5BEB653}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{906002E2-91C9-4D76-B6B1-F843F5BEB653}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Distribuciones Arly's</t>
   </si>
@@ -104,34 +104,22 @@
     <t>Calle 19 sur # 45B - 34</t>
   </si>
   <si>
-    <t>16/03/2023</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
-    <t>calle19sur$46a/48</t>
+    <t>Cantidad devuelta:</t>
+  </si>
+  <si>
+    <t>Cantidad entregada:</t>
+  </si>
+  <si>
+    <t>Tipo de pago:</t>
+  </si>
+  <si>
+    <t>17/03/2023</t>
   </si>
   <si>
     <t>Villavicencio</t>
   </si>
   <si>
-    <t>prueba de producto con nombres largos</t>
-  </si>
-  <si>
-    <t>Kilos</t>
-  </si>
-  <si>
-    <t>prueba de cambio</t>
-  </si>
-  <si>
-    <t>wwwwwwwwwwwwwwwwwwwwwwww</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>pruena numero 2 de nombr</t>
+    <t>Naylon 25lbs</t>
   </si>
 </sst>
 </file>
@@ -411,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -434,6 +422,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,10 +531,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,10 +543,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,17 +560,11 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -943,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q50" sqref="Q50"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,127 +946,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="18" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="24" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
-        <v>90</v>
-      </c>
-      <c r="M5" s="26"/>
+      <c r="L5" s="29">
+        <v>55</v>
+      </c>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="1:13" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="24" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
     </row>
     <row r="7" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="24" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="30"/>
+      <c r="L7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1095,66 +1087,58 @@
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="39">
-        <v>1020817740</v>
-      </c>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
+      <c r="I10" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39">
-        <v>3058319649</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="40"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1172,661 +1156,613 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
-        <v>85</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
+      <c r="A14" s="38">
+        <v>54564654</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="36"/>
+      <c r="I14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="40"/>
       <c r="K14" s="9">
-        <v>12000</v>
-      </c>
-      <c r="L14" s="37">
-        <v>12000</v>
-      </c>
-      <c r="M14" s="38"/>
+        <v>11050</v>
+      </c>
+      <c r="L14" s="41">
+        <v>11050</v>
+      </c>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
-        <v>333</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="10">
-        <v>1665</v>
-      </c>
-      <c r="L15" s="41">
-        <v>1665</v>
-      </c>
-      <c r="M15" s="42"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
-        <v>21</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="10">
-        <v>3600</v>
-      </c>
-      <c r="L16" s="41">
-        <v>3600</v>
-      </c>
-      <c r="M16" s="42"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>96</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="10">
-        <v>6000</v>
-      </c>
-      <c r="L17" s="41">
-        <v>6000</v>
-      </c>
-      <c r="M17" s="42"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>23</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="10">
-        <v>6000</v>
-      </c>
-      <c r="L18" s="41">
-        <v>6000</v>
-      </c>
-      <c r="M18" s="42"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="42"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="42"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
     </row>
     <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="42"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
     </row>
     <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
     </row>
     <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
     </row>
     <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
     </row>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
     </row>
     <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="42"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
     </row>
     <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="42"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
     </row>
     <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
     </row>
     <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="42"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="46"/>
     </row>
     <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="42"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46"/>
     </row>
     <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="42"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
     </row>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="42"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46"/>
     </row>
     <row r="42" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="42"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="46"/>
     </row>
     <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="42"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="46"/>
     </row>
     <row r="44" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="42"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="46"/>
     </row>
     <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="42"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="46"/>
     </row>
     <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="42"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="46"/>
     </row>
     <row r="47" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="42"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="46"/>
     </row>
     <row r="48" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="42"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="46"/>
     </row>
     <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="42"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="46"/>
     </row>
     <row r="50" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="42"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
     </row>
     <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
@@ -1844,161 +1780,170 @@
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="47"/>
+      <c r="A53" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="55"/>
       <c r="I53" s="51" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="53">
+      <c r="L53" s="57">
         <f>SUM(L14:M51)</f>
-        <v>29265</v>
-      </c>
-      <c r="M53" s="54"/>
+        <v>11050</v>
+      </c>
+      <c r="M53" s="58"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="48"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="56"/>
       <c r="I54" s="52"/>
       <c r="J54" s="52"/>
       <c r="K54" s="52"/>
-      <c r="L54" s="55"/>
-      <c r="M54" s="56"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="60"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="48"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="56"/>
       <c r="I55" s="52" t="s">
         <v>17</v>
       </c>
       <c r="J55" s="52"/>
       <c r="K55" s="52"/>
-      <c r="L55" s="55">
+      <c r="L55" s="59">
         <v>0</v>
       </c>
-      <c r="M55" s="56"/>
+      <c r="M55" s="60"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="48"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="56"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52"/>
       <c r="K56" s="52"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="56"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="A57" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="59">
+        <v>0</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="52"/>
       <c r="K57" s="52"/>
-      <c r="L57" s="55">
+      <c r="L57" s="59">
         <v>0</v>
       </c>
-      <c r="M57" s="56"/>
+      <c r="M57" s="60"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
       <c r="K58" s="52"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="56"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="60"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="59">
+        <v>3950</v>
+      </c>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
       <c r="I59" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="52"/>
       <c r="K59" s="52"/>
-      <c r="L59" s="55">
+      <c r="L59" s="59">
         <f>L53-L55+L57</f>
-        <v>29265</v>
-      </c>
-      <c r="M59" s="56"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+        <v>11050</v>
+      </c>
+      <c r="M59" s="60"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
       <c r="I60" s="52"/>
       <c r="J60" s="52"/>
       <c r="K60" s="52"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="56"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="60"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="190">
-    <mergeCell ref="A59:H61"/>
+  <mergeCells count="191">
     <mergeCell ref="I59:K60"/>
     <mergeCell ref="L59:M60"/>
     <mergeCell ref="I61:M61"/>
@@ -2011,6 +1956,8 @@
     <mergeCell ref="G57:H58"/>
     <mergeCell ref="I57:K58"/>
     <mergeCell ref="L57:M58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="I51:J51"/>

--- a/Ferreteria/Content/Archivos/Factura.xlsx
+++ b/Ferreteria/Content/Archivos/Factura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmtav\OneDrive\Documents\DataBaseSQL\DistribucionesArlys\Impresora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmtav\OneDrive\Documentos\DataBaseSQL\DistribucionesArlys\Impresora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DE2777-DA7D-448D-8119-E9E592D5185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A498D-5A0C-4D4C-B463-19BE3C0A6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{906002E2-91C9-4D76-B6B1-F843F5BEB653}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{906002E2-91C9-4D76-B6B1-F843F5BEB653}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Distribuciones Arly's</t>
   </si>
   <si>
-    <t>NIT: 40079945-0 Regimen comun</t>
-  </si>
-  <si>
     <t xml:space="preserve">N° </t>
   </si>
   <si>
@@ -113,13 +110,16 @@
     <t>Tipo de pago:</t>
   </si>
   <si>
-    <t>17/03/2023</t>
+    <t>NIT: 40079945-0 Regimen simplificado</t>
+  </si>
+  <si>
+    <t>04/abr/2023</t>
   </si>
   <si>
     <t>Villavicencio</t>
   </si>
   <si>
-    <t>Naylon 25lbs</t>
+    <t>BomLed E27 20W</t>
   </si>
 </sst>
 </file>
@@ -432,6 +432,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,9 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,90 +566,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -935,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:F60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,127 +946,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="22" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="24" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+    </row>
+    <row r="5" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="57">
+        <v>10013</v>
+      </c>
+      <c r="M5" s="58"/>
+    </row>
+    <row r="6" spans="1:13" ht="26.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="29">
-        <v>55</v>
-      </c>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="28" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="1:13" ht="24.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="34"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -1085,60 +1085,60 @@
     </row>
     <row r="9" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
     </row>
     <row r="10" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1156,613 +1156,613 @@
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="J13" s="41"/>
+      <c r="K13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="37"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>54564654</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40" t="s">
+      <c r="A14" s="28">
+        <v>7707654274339</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="40"/>
+      <c r="I14" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="30"/>
       <c r="K14" s="9">
-        <v>11050</v>
-      </c>
-      <c r="L14" s="41">
-        <v>11050</v>
-      </c>
-      <c r="M14" s="42"/>
+        <v>17120</v>
+      </c>
+      <c r="L14" s="43">
+        <v>17120</v>
+      </c>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="46"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="46"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="46"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="46"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="46"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="46"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="46"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="46"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
     </row>
     <row r="36" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="46"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
     </row>
     <row r="37" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="46"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="46"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
     </row>
     <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="46"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="46"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
     </row>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="45"/>
-      <c r="M41" s="46"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
     </row>
     <row r="42" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="46"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
     </row>
     <row r="43" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="46"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
     </row>
     <row r="44" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="46"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="46"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="32"/>
     </row>
     <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="46"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="46"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="32"/>
     </row>
     <row r="48" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="46"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="32"/>
     </row>
     <row r="49" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49" s="10"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="46"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="32"/>
     </row>
     <row r="50" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50" s="10"/>
-      <c r="L50" s="45"/>
-      <c r="M50" s="46"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
     </row>
     <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
       <c r="K51" s="10"/>
-      <c r="L51" s="45"/>
-      <c r="M51" s="46"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="32"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
@@ -1780,152 +1780,152 @@
       <c r="M52" s="13"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="51" t="s">
+      <c r="A53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="38">
+        <f>SUM(L14:M51)</f>
+        <v>17120</v>
+      </c>
+      <c r="M53" s="39"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="57">
-        <f>SUM(L14:M51)</f>
-        <v>11050</v>
-      </c>
-      <c r="M53" s="58"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="60"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="52" t="s">
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19">
+        <v>0</v>
+      </c>
+      <c r="M55" s="20"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="19">
+        <v>17120</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="59">
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="19">
         <v>0</v>
       </c>
-      <c r="M55" s="60"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="59"/>
-      <c r="M56" s="60"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="59">
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="19">
         <v>0</v>
       </c>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="59">
-        <v>0</v>
-      </c>
-      <c r="M57" s="60"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="60"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="59">
-        <v>3950</v>
-      </c>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="59">
+      <c r="I59" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="19">
         <f>L53-L55+L57</f>
-        <v>11050</v>
-      </c>
-      <c r="M59" s="60"/>
+        <v>17120</v>
+      </c>
+      <c r="M59" s="20"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="60"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
@@ -1936,38 +1936,165 @@
       <c r="F61" s="17"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="62"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="191">
-    <mergeCell ref="I59:K60"/>
-    <mergeCell ref="L59:M60"/>
-    <mergeCell ref="I61:M61"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:K56"/>
-    <mergeCell ref="L55:M56"/>
-    <mergeCell ref="A57:C58"/>
-    <mergeCell ref="D57:F58"/>
-    <mergeCell ref="G57:H58"/>
-    <mergeCell ref="I57:K58"/>
-    <mergeCell ref="L57:M58"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="D59:F60"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A53:C56"/>
-    <mergeCell ref="D53:F56"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:K54"/>
-    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="A1:D7"/>
+    <mergeCell ref="E1:J4"/>
+    <mergeCell ref="K1:M4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L44:M44"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="I49:J49"/>
@@ -1984,157 +2111,30 @@
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="L48:M48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="A1:D7"/>
-    <mergeCell ref="E1:J4"/>
-    <mergeCell ref="K1:M4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A53:C56"/>
+    <mergeCell ref="D53:F56"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:K54"/>
+    <mergeCell ref="L53:M54"/>
+    <mergeCell ref="I59:K60"/>
+    <mergeCell ref="L59:M60"/>
+    <mergeCell ref="I61:M61"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:K56"/>
+    <mergeCell ref="L55:M56"/>
+    <mergeCell ref="A57:C58"/>
+    <mergeCell ref="D57:F58"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="I57:K58"/>
+    <mergeCell ref="L57:M58"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="D59:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="portrait" r:id="rId1"/>
